--- a/swift-wheels-hub-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-agency/src/test/resources/file/Cars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub\swift-wheels-hub-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF0CA8-4263-488F-ADB8-003E5F08F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923509F-81EA-45E3-8908-CCF276ED4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,19 +63,19 @@
     <t>Volkswagen</t>
   </si>
   <si>
-    <t>Arteon</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
     <t>""</t>
   </si>
   <si>
-    <t>Sedan</t>
-  </si>
-  <si>
     <t>Available</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -459,25 +461,25 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="2">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -486,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/swift-wheels-hub-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-agency/src/test/resources/file/Cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub\swift-wheels-hub-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923509F-81EA-45E3-8908-CCF276ED4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F3718B-AE08-4104-B74E-1DDCD5E6953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MODEL</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CAR STATUS</t>
   </si>
   <si>
-    <t>URL OF IMAGE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BODY TYPE</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
@@ -76,6 +70,9 @@
   </si>
   <si>
     <t>Hatchback</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
   </si>
 </sst>
 </file>
@@ -134,6 +131,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2759901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1973580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E904ED6-9EC5-C0B1-1743-1A4474BC1997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8237221" y="182881"/>
+          <a:ext cx="2759900" cy="1973579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +469,7 @@
     <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.21875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -429,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -447,36 +499,36 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>2010</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>270000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
         <v>500</v>
@@ -486,12 +538,10 @@
       </c>
       <c r="J2" s="2">
         <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>